--- a/data/trans_dic/P1412-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P1412-Clase-trans_dic.xlsx
@@ -655,7 +655,7 @@
         <v>0</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>0.006975904582864585</v>
+        <v>0.006975904582864584</v>
       </c>
       <c r="I4" s="5" t="n">
         <v>0.002781555576295092</v>
@@ -664,7 +664,7 @@
         <v>0.004977067169623147</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>0.0101342057929828</v>
+        <v>0.01013420579298279</v>
       </c>
     </row>
     <row r="5">
@@ -676,26 +676,26 @@
       </c>
       <c r="C5" s="5" t="inlineStr"/>
       <c r="D5" s="5" t="n">
-        <v>0.002148621139335526</v>
+        <v>0.002159048473221459</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.006214257644162081</v>
+        <v>0.006346003701832734</v>
       </c>
       <c r="F5" s="5" t="n">
         <v>0</v>
       </c>
       <c r="G5" s="5" t="inlineStr"/>
       <c r="H5" s="5" t="n">
-        <v>0.002640825466017759</v>
+        <v>0.00252197657460117</v>
       </c>
       <c r="I5" s="5" t="n">
         <v>0</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.001204418910869861</v>
+        <v>0.001191267400327295</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.005798368204215009</v>
+        <v>0.005533964993488583</v>
       </c>
     </row>
     <row r="6">
@@ -707,26 +707,26 @@
       </c>
       <c r="C6" s="5" t="inlineStr"/>
       <c r="D6" s="5" t="n">
-        <v>0.02792674320902746</v>
+        <v>0.02918398882710723</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.02445978618536571</v>
+        <v>0.02329006814135063</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.0263343404651568</v>
+        <v>0.02034150862449316</v>
       </c>
       <c r="G6" s="5" t="inlineStr"/>
       <c r="H6" s="5" t="n">
-        <v>0.01570670966438911</v>
+        <v>0.01510475824857139</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.00841665878527669</v>
+        <v>0.009007385402788398</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.01621982094395407</v>
+        <v>0.01434225268824887</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.01674797462101261</v>
+        <v>0.01670446073628237</v>
       </c>
     </row>
     <row r="7">
@@ -747,7 +747,7 @@
         <v>0</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.005355727221700003</v>
+        <v>0.005355727221700002</v>
       </c>
       <c r="F7" s="5" t="n">
         <v>0</v>
@@ -780,7 +780,7 @@
       </c>
       <c r="D8" s="5" t="inlineStr"/>
       <c r="E8" s="5" t="n">
-        <v>0.001208982383455644</v>
+        <v>0.00120402047459131</v>
       </c>
       <c r="F8" s="5" t="inlineStr"/>
       <c r="G8" s="5" t="inlineStr"/>
@@ -792,7 +792,7 @@
       </c>
       <c r="J8" s="5" t="inlineStr"/>
       <c r="K8" s="5" t="n">
-        <v>0.001091707201427434</v>
+        <v>0.0006532002535435933</v>
       </c>
     </row>
     <row r="9">
@@ -803,23 +803,23 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.01013598562661815</v>
+        <v>0.01246883019583965</v>
       </c>
       <c r="D9" s="5" t="inlineStr"/>
       <c r="E9" s="5" t="n">
-        <v>0.01464421686236616</v>
+        <v>0.01511547630809893</v>
       </c>
       <c r="F9" s="5" t="inlineStr"/>
       <c r="G9" s="5" t="inlineStr"/>
       <c r="H9" s="5" t="n">
-        <v>0.006826429395439781</v>
+        <v>0.006831622540060228</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.007654451986900094</v>
+        <v>0.006853437270209685</v>
       </c>
       <c r="J9" s="5" t="inlineStr"/>
       <c r="K9" s="5" t="n">
-        <v>0.008573830572986342</v>
+        <v>0.008534326089481703</v>
       </c>
     </row>
     <row r="10">
@@ -858,7 +858,7 @@
         <v>0.004250679014333537</v>
       </c>
       <c r="K10" s="5" t="n">
-        <v>0.01066076608235624</v>
+        <v>0.01066076608235623</v>
       </c>
     </row>
     <row r="11">
@@ -869,13 +869,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.003088748711711037</v>
+        <v>0.002984037004905257</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.001649264342674168</v>
+        <v>0.001655647695669693</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.006335268087982181</v>
+        <v>0.007110847032099023</v>
       </c>
       <c r="F11" s="5" t="inlineStr"/>
       <c r="G11" s="5" t="inlineStr"/>
@@ -883,13 +883,13 @@
         <v>0</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.002116740902832465</v>
+        <v>0.002219364005262001</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.001255156838472037</v>
+        <v>0.001250149371158222</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.005249864305280952</v>
+        <v>0.005551839306549916</v>
       </c>
     </row>
     <row r="12">
@@ -900,27 +900,27 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.0227491179355423</v>
+        <v>0.02297786813727981</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.01639918028430606</v>
+        <v>0.0161645715878499</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.02542017493360007</v>
+        <v>0.02688222027511908</v>
       </c>
       <c r="F12" s="5" t="inlineStr"/>
       <c r="G12" s="5" t="inlineStr"/>
       <c r="H12" s="5" t="n">
-        <v>0.01901397611482471</v>
+        <v>0.01683132683124004</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.01800496062082946</v>
+        <v>0.01634441752650006</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.0115920630137279</v>
+        <v>0.01132633845483155</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.01933075556206753</v>
+        <v>0.02076248625016862</v>
       </c>
     </row>
     <row r="13">
@@ -959,7 +959,7 @@
         <v>0.007304655179484908</v>
       </c>
       <c r="K13" s="5" t="n">
-        <v>0.008604633691992204</v>
+        <v>0.008604633691992205</v>
       </c>
     </row>
     <row r="14">
@@ -970,13 +970,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.006193064330170326</v>
+        <v>0.005445807981215</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.005495418494798461</v>
+        <v>0.005293225509082005</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.005857769044614656</v>
+        <v>0.005840480258249905</v>
       </c>
       <c r="F14" s="5" t="n">
         <v>0</v>
@@ -985,16 +985,16 @@
         <v>0</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.002393487003664992</v>
+        <v>0.002683780311203433</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.003664859982200367</v>
+        <v>0.004040145613666056</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.004086185086162945</v>
+        <v>0.004278883409922534</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.005198646532847351</v>
+        <v>0.005457467930087627</v>
       </c>
     </row>
     <row r="15">
@@ -1005,31 +1005,31 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.01802903888994453</v>
+        <v>0.01754346582447567</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.01793327908197103</v>
+        <v>0.01711163923356654</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.01761146953060572</v>
+        <v>0.01856480316148341</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.006645011391340877</v>
+        <v>0.00660603132710692</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.01217485280417797</v>
+        <v>0.01072203245871579</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.01149050710187956</v>
+        <v>0.01160370736552674</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.01140196531984089</v>
+        <v>0.01163469560461924</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.01245812256003262</v>
+        <v>0.01190098878476918</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.01366757143512277</v>
+        <v>0.01318572711894665</v>
       </c>
     </row>
     <row r="16">
@@ -1059,7 +1059,7 @@
         <v>0.007608901444079415</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>0.00605177257616037</v>
+        <v>0.006051772576160368</v>
       </c>
       <c r="I16" s="5" t="n">
         <v>0.0119673833889742</v>
@@ -1068,7 +1068,7 @@
         <v>0.009630099212241764</v>
       </c>
       <c r="K16" s="5" t="n">
-        <v>0.006263131894027946</v>
+        <v>0.006263131894027945</v>
       </c>
     </row>
     <row r="17">
@@ -1079,31 +1079,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.002235174861462348</v>
+        <v>0.001997446139352271</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.004802973111815785</v>
+        <v>0.005809391977397764</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.002345252779245193</v>
+        <v>0.002618991993922391</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.006994582143663598</v>
+        <v>0.00740792906809908</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.001638125576779204</v>
+        <v>0.002887604862200976</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.003047132239598962</v>
+        <v>0.003072637902333732</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.007051494301376911</v>
+        <v>0.006609153419893051</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.005360932445261556</v>
+        <v>0.005284440432606324</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.003906508358451368</v>
+        <v>0.003601647480040735</v>
       </c>
     </row>
     <row r="18">
@@ -1114,31 +1114,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.01940474359313585</v>
+        <v>0.02108463728882625</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.02236869640269619</v>
+        <v>0.02413765115394824</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.01383067136930666</v>
+        <v>0.01357550811144185</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.0249257232267539</v>
+        <v>0.02590308242154383</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.01613020307504837</v>
+        <v>0.01713135856113288</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.01119971221774425</v>
+        <v>0.01144051462794736</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.02012582781128758</v>
+        <v>0.02015997242141537</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.01581852277830792</v>
+        <v>0.01640751743872159</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.01016100474507731</v>
+        <v>0.010408207048769</v>
       </c>
     </row>
     <row r="19">
@@ -1168,7 +1168,7 @@
         <v>0.0101964427895936</v>
       </c>
       <c r="H19" s="5" t="n">
-        <v>0.006628666612582</v>
+        <v>0.006628666612581997</v>
       </c>
       <c r="I19" s="5" t="n">
         <v>0.007862357777327487</v>
@@ -1177,7 +1177,7 @@
         <v>0.008058023843081352</v>
       </c>
       <c r="K19" s="5" t="n">
-        <v>0.00517321498721168</v>
+        <v>0.005173214987211679</v>
       </c>
     </row>
     <row r="20">
@@ -1191,22 +1191,22 @@
       <c r="D20" s="5" t="inlineStr"/>
       <c r="E20" s="5" t="inlineStr"/>
       <c r="F20" s="5" t="n">
-        <v>0.004901203290531118</v>
+        <v>0.005213955651969026</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.005184327672650646</v>
+        <v>0.005158831994514551</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.003125545471247137</v>
+        <v>0.003277189301213223</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.003924075788642102</v>
+        <v>0.004067892124199871</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.004083981954849122</v>
+        <v>0.003975369608799192</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.002464253873731607</v>
+        <v>0.002555430694528758</v>
       </c>
     </row>
     <row r="21">
@@ -1220,22 +1220,22 @@
       <c r="D21" s="5" t="inlineStr"/>
       <c r="E21" s="5" t="inlineStr"/>
       <c r="F21" s="5" t="n">
-        <v>0.01730163677759268</v>
+        <v>0.01821647873448488</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.01860897945119522</v>
+        <v>0.01834256309864694</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.01162657776277542</v>
+        <v>0.01218361324041674</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.01370620948395636</v>
+        <v>0.01465305744233088</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.01503188334699994</v>
+        <v>0.01397771693593004</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.009565016622648668</v>
+        <v>0.009797596696636688</v>
       </c>
     </row>
     <row r="22">
@@ -1285,31 +1285,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.00416971970604538</v>
+        <v>0.004192488694208054</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.00509074131283048</v>
+        <v>0.005104693559842914</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.006380431761318877</v>
+        <v>0.006929029880796268</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.004429925439737088</v>
+        <v>0.004406097409838889</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.003170222534446879</v>
+        <v>0.00323369983756848</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.004009878635984304</v>
+        <v>0.003981536896887959</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.005003721406998994</v>
+        <v>0.004917666973080871</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.004765635312158379</v>
+        <v>0.004640280639082306</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.005782392645759443</v>
+        <v>0.005729795268333309</v>
       </c>
     </row>
     <row r="24">
@@ -1320,31 +1320,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.01070298886527792</v>
+        <v>0.01040384826566289</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.01137669810983717</v>
+        <v>0.01135471344527856</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.01281680658899967</v>
+        <v>0.01302317393156313</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.01026849390584128</v>
+        <v>0.01016177732156002</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.008881068522672812</v>
+        <v>0.008770121007258583</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.007831337400915355</v>
+        <v>0.007742477589590596</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.008993597315294442</v>
+        <v>0.008972458257775545</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.008680232627274449</v>
+        <v>0.008644758266875807</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.009290823151947321</v>
+        <v>0.009393352923208753</v>
       </c>
     </row>
     <row r="25">
@@ -1576,26 +1576,26 @@
       </c>
       <c r="C6" s="6" t="inlineStr"/>
       <c r="D6" s="6" t="n">
-        <v>922</v>
+        <v>926</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>3422</v>
+        <v>3494</v>
       </c>
       <c r="F6" s="6" t="n">
         <v>0</v>
       </c>
       <c r="G6" s="6" t="inlineStr"/>
       <c r="H6" s="6" t="n">
-        <v>1290</v>
+        <v>1232</v>
       </c>
       <c r="I6" s="6" t="n">
         <v>0</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>935</v>
+        <v>925</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>6025</v>
+        <v>5750</v>
       </c>
     </row>
     <row r="7">
@@ -1607,26 +1607,26 @@
       </c>
       <c r="C7" s="6" t="inlineStr"/>
       <c r="D7" s="6" t="n">
-        <v>11983</v>
+        <v>12523</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>13468</v>
+        <v>12824</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>8281</v>
+        <v>6396</v>
       </c>
       <c r="G7" s="6" t="inlineStr"/>
       <c r="H7" s="6" t="n">
-        <v>7671</v>
+        <v>7377</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>6327</v>
+        <v>6771</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>12589</v>
+        <v>11132</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>17402</v>
+        <v>17356</v>
       </c>
     </row>
     <row r="8">
@@ -1715,7 +1715,7 @@
       </c>
       <c r="D10" s="6" t="inlineStr"/>
       <c r="E10" s="6" t="n">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="F10" s="6" t="inlineStr"/>
       <c r="G10" s="6" t="inlineStr"/>
@@ -1727,7 +1727,7 @@
       </c>
       <c r="J10" s="6" t="inlineStr"/>
       <c r="K10" s="6" t="n">
-        <v>988</v>
+        <v>591</v>
       </c>
     </row>
     <row r="11">
@@ -1738,23 +1738,23 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>4245</v>
+        <v>5222</v>
       </c>
       <c r="D11" s="6" t="inlineStr"/>
       <c r="E11" s="6" t="n">
-        <v>7076</v>
+        <v>7304</v>
       </c>
       <c r="F11" s="6" t="inlineStr"/>
       <c r="G11" s="6" t="inlineStr"/>
       <c r="H11" s="6" t="n">
-        <v>2879</v>
+        <v>2881</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>5793</v>
+        <v>5187</v>
       </c>
       <c r="J11" s="6" t="inlineStr"/>
       <c r="K11" s="6" t="n">
-        <v>7759</v>
+        <v>7724</v>
       </c>
     </row>
     <row r="12">
@@ -1839,13 +1839,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>1944</v>
+        <v>1878</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>861</v>
+        <v>864</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>2982</v>
+        <v>3347</v>
       </c>
       <c r="F14" s="6" t="inlineStr"/>
       <c r="G14" s="6" t="inlineStr"/>
@@ -1853,13 +1853,13 @@
         <v>0</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>1883</v>
+        <v>1974</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>864</v>
+        <v>860</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>3456</v>
+        <v>3654</v>
       </c>
     </row>
     <row r="15">
@@ -1870,27 +1870,27 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>14319</v>
+        <v>14463</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>8559</v>
+        <v>8437</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>11966</v>
+        <v>12655</v>
       </c>
       <c r="F15" s="6" t="inlineStr"/>
       <c r="G15" s="6" t="inlineStr"/>
       <c r="H15" s="6" t="n">
-        <v>3565</v>
+        <v>3156</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>16016</v>
+        <v>14539</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>7976</v>
+        <v>7793</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>12724</v>
+        <v>13667</v>
       </c>
     </row>
     <row r="16">
@@ -1975,13 +1975,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>7178</v>
+        <v>6312</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>6318</v>
+        <v>6085</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>6622</v>
+        <v>6603</v>
       </c>
       <c r="F18" s="6" t="n">
         <v>0</v>
@@ -1990,16 +1990,16 @@
         <v>0</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>2060</v>
+        <v>2309</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>7047</v>
+        <v>7768</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>8072</v>
+        <v>8453</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>10350</v>
+        <v>10866</v>
       </c>
     </row>
     <row r="19">
@@ -2010,31 +2010,31 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>20896</v>
+        <v>20333</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>20617</v>
+        <v>19672</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>19910</v>
+        <v>20987</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>5075</v>
+        <v>5046</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>10055</v>
+        <v>8855</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>9887</v>
+        <v>9985</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>21924</v>
+        <v>22371</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>24611</v>
+        <v>23511</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>27212</v>
+        <v>26252</v>
       </c>
     </row>
     <row r="20">
@@ -2119,31 +2119,31 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>1141</v>
+        <v>1020</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>2981</v>
+        <v>3606</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>1326</v>
+        <v>1481</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>5318</v>
+        <v>5632</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>1209</v>
+        <v>2132</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>2527</v>
+        <v>2549</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>8961</v>
+        <v>8399</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>7285</v>
+        <v>7181</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>5450</v>
+        <v>5024</v>
       </c>
     </row>
     <row r="23">
@@ -2154,31 +2154,31 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>9908</v>
+        <v>10766</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>13884</v>
+        <v>14982</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>7822</v>
+        <v>7678</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>18950</v>
+        <v>19693</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>11908</v>
+        <v>12647</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>9289</v>
+        <v>9489</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>25577</v>
+        <v>25620</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>21497</v>
+        <v>22297</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>14175</v>
+        <v>14519</v>
       </c>
     </row>
     <row r="24">
@@ -2266,22 +2266,22 @@
       <c r="D26" s="6" t="inlineStr"/>
       <c r="E26" s="6" t="inlineStr"/>
       <c r="F26" s="6" t="n">
-        <v>5431</v>
+        <v>5778</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>5610</v>
+        <v>5582</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>2635</v>
+        <v>2763</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>5396</v>
+        <v>5594</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>5592</v>
+        <v>5443</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>2662</v>
+        <v>2761</v>
       </c>
     </row>
     <row r="27">
@@ -2295,22 +2295,22 @@
       <c r="D27" s="6" t="inlineStr"/>
       <c r="E27" s="6" t="inlineStr"/>
       <c r="F27" s="6" t="n">
-        <v>19173</v>
+        <v>20187</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>20135</v>
+        <v>19847</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>9803</v>
+        <v>10273</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>18847</v>
+        <v>20149</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>20581</v>
+        <v>19138</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>10334</v>
+        <v>10586</v>
       </c>
     </row>
     <row r="28">
@@ -2395,31 +2395,31 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>14268</v>
+        <v>14346</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>17236</v>
+        <v>17283</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>21935</v>
+        <v>23821</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>15703</v>
+        <v>15619</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>11196</v>
+        <v>11420</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>14559</v>
+        <v>14456</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>34859</v>
+        <v>34260</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>32965</v>
+        <v>32098</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>40874</v>
+        <v>40502</v>
       </c>
     </row>
     <row r="31">
@@ -2430,31 +2430,31 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>36625</v>
+        <v>35601</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>38518</v>
+        <v>38444</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>44062</v>
+        <v>44772</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>36400</v>
+        <v>36021</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>31364</v>
+        <v>30973</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>28434</v>
+        <v>28111</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>62656</v>
+        <v>62508</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>60044</v>
+        <v>59799</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>65674</v>
+        <v>66398</v>
       </c>
     </row>
     <row r="32">
